--- a/data/trans_dic/P39A5_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8609128918698052</v>
+        <v>0.8609128918698051</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.8470974008209596</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8184545961850859</v>
+        <v>0.8168950190450143</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8188603302044443</v>
+        <v>0.8193398226514848</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8281224497035883</v>
+        <v>0.8298448448484714</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.895581315705561</v>
+        <v>0.894006196111048</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.874098826875135</v>
+        <v>0.8722468602060186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.873235127995076</v>
+        <v>0.87456088243568</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8813390824566737</v>
+        <v>0.8813390824566736</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8653240561973696</v>
+        <v>0.8653240561973697</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8727789563735516</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8578856928614009</v>
+        <v>0.8534611367676447</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8471661771613819</v>
+        <v>0.8462047008303257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8584008530276196</v>
+        <v>0.8576287147216369</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9043277122591054</v>
+        <v>0.9023399039895005</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8841725332913956</v>
+        <v>0.8823144705201167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8873142513541916</v>
+        <v>0.8873664748488019</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8778044189358343</v>
+        <v>0.8778044189358344</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8471456808780068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8626066508673035</v>
+        <v>0.8626066508673036</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8542172633375087</v>
+        <v>0.8536553555344156</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8265480869126436</v>
+        <v>0.8266151259137831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.847864206686429</v>
+        <v>0.8466346933970089</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8969656040382447</v>
+        <v>0.8981884852201105</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8667336558511125</v>
+        <v>0.8644181716977998</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8781413650315172</v>
+        <v>0.8761994202076925</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8486676476028061</v>
+        <v>0.848667647602806</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8771293671080994</v>
+        <v>0.8771293671080993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8623439028027312</v>
+        <v>0.8623439028027314</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8198265919564389</v>
+        <v>0.8248632737638945</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8549494094770149</v>
+        <v>0.8545056841448492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8446729464555961</v>
+        <v>0.8449130239395574</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8731213998594896</v>
+        <v>0.8724407348237126</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8960447979262974</v>
+        <v>0.8955135079173779</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8791113879547472</v>
+        <v>0.8784284799900395</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8682594868963891</v>
+        <v>0.8682594868963893</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8602245721839114</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8565987132286831</v>
+        <v>0.8548877734302034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8497078185013802</v>
+        <v>0.8492172333585254</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8557404612269347</v>
+        <v>0.8555032087492649</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8810906190157698</v>
+        <v>0.8803452186021529</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8703931212371026</v>
+        <v>0.8706073968600215</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8726316751077356</v>
+        <v>0.8715045330372202</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>311527</v>
+        <v>310933</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>430349</v>
+        <v>430601</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>750423</v>
+        <v>751984</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>340883</v>
+        <v>340284</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>459379</v>
+        <v>458406</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>791303</v>
+        <v>792504</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>756261</v>
+        <v>752360</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>857530</v>
+        <v>856556</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1625616</v>
+        <v>1624154</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>797201</v>
+        <v>795449</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>894989</v>
+        <v>893108</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1680372</v>
+        <v>1680471</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>853455</v>
+        <v>852894</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>811753</v>
+        <v>811819</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1679795</v>
+        <v>1677359</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>896166</v>
+        <v>897387</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>851219</v>
+        <v>848945</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1739780</v>
+        <v>1735932</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>764526</v>
+        <v>769223</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>737467</v>
+        <v>737085</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1516299</v>
+        <v>1516730</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>814226</v>
+        <v>813591</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>772916</v>
+        <v>772457</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1578121</v>
+        <v>1576895</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2735823</v>
+        <v>2730359</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2874106</v>
+        <v>2872447</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5627593</v>
+        <v>5626033</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2814046</v>
+        <v>2811665</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2944073</v>
+        <v>2944798</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5738675</v>
+        <v>5731262</v>
       </c>
     </row>
     <row r="24">
